--- a/py excel/openpyxl_homework.xlsx
+++ b/py excel/openpyxl_homework.xlsx
@@ -477,13 +477,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
-      <c r="B6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
